--- a/sputnik/personal/cel/cel28.xlsx
+++ b/sputnik/personal/cel/cel28.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Оплачено</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>Оплачен целевой взнос на ремонт общей подъездной дороги</t>
+  </si>
+  <si>
+    <t>Начислен целевой взнос на ремонт дорог на территории СНТ_2020</t>
   </si>
 </sst>
 </file>
@@ -171,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -211,6 +214,7 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -521,7 +525,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A9"/>
+      <selection activeCell="A10" sqref="A10:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -633,9 +637,15 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
+      <c r="A10" s="17">
+        <v>43952</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="11">
+        <v>1000</v>
+      </c>
       <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">

--- a/sputnik/personal/cel/cel28.xlsx
+++ b/sputnik/personal/cel/cel28.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Оплачено</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>Начислен целевой взнос на ремонт дорог на территории СНТ_2020</t>
+  </si>
+  <si>
+    <t>Начислен целевой взнос на ремонт дорог на территории СНТ_2021</t>
+  </si>
+  <si>
+    <t>Начислен целевой взнос на реконструкцию электросети СНТ 1 этап</t>
   </si>
 </sst>
 </file>
@@ -174,7 +180,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -215,6 +221,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -522,10 +529,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:D10"/>
+      <selection activeCell="A11" sqref="A11:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -649,10 +656,27 @@
       <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
+      <c r="A11" s="17">
+        <v>44317</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="11">
+        <v>1000</v>
+      </c>
+      <c r="D11" s="18"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="17">
+        <v>44317</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="11">
+        <v>1619</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/cel/cel28.xlsx
+++ b/sputnik/personal/cel/cel28.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Оплачено</t>
   </si>
@@ -58,13 +58,22 @@
   </si>
   <si>
     <t>Начислен целевой взнос на реконструкцию электросети СНТ 1 этап</t>
+  </si>
+  <si>
+    <t>Оплачен целевой взнос на ремонт дорог на территории СНТ_2021</t>
+  </si>
+  <si>
+    <t>Оплачен целевой взнос на реконструкцию электросети СНТ 1 этап</t>
+  </si>
+  <si>
+    <t>Оплачен целевой взнос на приобретение мини трактора</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,6 +96,13 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="3">
@@ -180,7 +196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -221,7 +237,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -529,10 +546,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:C12"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -650,10 +667,10 @@
       <c r="B10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="19">
         <v>1000</v>
       </c>
-      <c r="D10" s="11"/>
+      <c r="D10" s="13"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="17">
@@ -662,7 +679,7 @@
       <c r="B11" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="13">
         <v>1000</v>
       </c>
       <c r="D11" s="18"/>
@@ -674,9 +691,70 @@
       <c r="B12" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="13">
         <v>1619</v>
       </c>
+      <c r="D12" s="13"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="17">
+        <v>44418</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="17">
+        <v>44418</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="17">
+        <v>44418</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
